--- a/data/Contact_Recreation/WhangaehuatFieldsTrack_09955ce25f.xlsx
+++ b/data/Contact_Recreation/WhangaehuatFieldsTrack_09955ce25f.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -644,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -683,7 +683,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -761,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -878,7 +878,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -956,7 +956,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">

--- a/data/Contact_Recreation/WhangaehuatFieldsTrack_09955ce25f.xlsx
+++ b/data/Contact_Recreation/WhangaehuatFieldsTrack_09955ce25f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="46">
   <si>
     <t>site name</t>
   </si>
@@ -49,91 +49,94 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>41</t>
+    <t>41.0</t>
   </si>
   <si>
-    <t>&lt;9</t>
+    <t>&lt;9.0</t>
   </si>
   <si>
-    <t>148</t>
+    <t>148.0</t>
   </si>
   <si>
-    <t>20</t>
+    <t>20.0</t>
   </si>
   <si>
-    <t>135</t>
+    <t>135.0</t>
   </si>
   <si>
-    <t>243</t>
+    <t>243.0</t>
   </si>
   <si>
-    <t>288</t>
+    <t>288.0</t>
   </si>
   <si>
-    <t>292</t>
+    <t>292.0</t>
   </si>
   <si>
-    <t>839</t>
+    <t>839.0</t>
   </si>
   <si>
-    <t>399</t>
+    <t>399.0</t>
   </si>
   <si>
-    <t>10</t>
+    <t>10.0</t>
   </si>
   <si>
-    <t>86</t>
+    <t>86.0</t>
   </si>
   <si>
-    <t>299</t>
+    <t>299.0</t>
   </si>
   <si>
-    <t>9</t>
+    <t>9.0</t>
   </si>
   <si>
-    <t>31</t>
+    <t>31.0</t>
   </si>
   <si>
-    <t>160</t>
+    <t>160.0</t>
   </si>
   <si>
-    <t>161</t>
+    <t>161.0</t>
   </si>
   <si>
-    <t>226</t>
+    <t>226.0</t>
   </si>
   <si>
-    <t>156</t>
+    <t>156.0</t>
   </si>
   <si>
-    <t>75</t>
+    <t>75.0</t>
   </si>
   <si>
-    <t>285</t>
+    <t>285.0</t>
   </si>
   <si>
-    <t>63</t>
+    <t>63.0</t>
   </si>
   <si>
-    <t>122</t>
+    <t>122.0</t>
   </si>
   <si>
-    <t>350</t>
+    <t>350.0</t>
   </si>
   <si>
-    <t>52</t>
+    <t>52.0</t>
   </si>
   <si>
-    <t>30</t>
+    <t>30.0</t>
   </si>
   <si>
-    <t>132</t>
+    <t>132.0</t>
   </si>
   <si>
-    <t>109</t>
+    <t>109.0</t>
   </si>
   <si>
-    <t>369</t>
+    <t>369.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,13 +562,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -582,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -608,13 +614,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -634,10 +640,10 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -657,13 +663,13 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -683,13 +689,13 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -709,13 +715,13 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -735,13 +741,13 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -761,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -787,13 +793,13 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -813,13 +819,13 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -839,13 +845,13 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -865,13 +871,13 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -891,13 +897,13 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -917,13 +923,13 @@
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -943,13 +949,13 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -969,13 +975,13 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -995,13 +1001,13 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1021,13 +1027,13 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1047,13 +1053,13 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1073,13 +1079,13 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1099,13 +1105,13 @@
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1125,13 +1131,13 @@
         <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1151,13 +1157,13 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1177,13 +1183,13 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1203,13 +1209,13 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1229,13 +1235,13 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1255,13 +1261,13 @@
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1281,13 +1287,13 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1307,13 +1313,13 @@
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1333,13 +1339,13 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1359,13 +1365,13 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1385,13 +1391,13 @@
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1411,13 +1417,13 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1437,13 +1443,13 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1463,13 +1469,13 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1489,13 +1495,13 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -1515,13 +1521,13 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -1541,13 +1547,13 @@
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -1567,13 +1573,13 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -1593,13 +1599,13 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -1619,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -1645,13 +1651,13 @@
         <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -1671,13 +1677,13 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -1697,13 +1703,13 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -1723,13 +1729,13 @@
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -1749,13 +1755,13 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -1775,13 +1781,13 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -1801,13 +1807,13 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -1827,13 +1833,13 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -1853,13 +1859,13 @@
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -1879,13 +1885,13 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -1905,13 +1911,13 @@
         <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -1931,13 +1937,13 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -1957,13 +1963,13 @@
         <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -1983,13 +1989,13 @@
         <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2009,13 +2015,13 @@
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2035,13 +2041,13 @@
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2061,13 +2067,13 @@
         <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2087,13 +2093,13 @@
         <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2113,13 +2119,13 @@
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2139,13 +2145,13 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2165,13 +2171,13 @@
         <v>28</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2191,13 +2197,13 @@
         <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2217,13 +2223,13 @@
         <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2243,13 +2249,13 @@
         <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2269,13 +2275,13 @@
         <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2295,13 +2301,13 @@
         <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2321,13 +2327,13 @@
         <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2347,13 +2353,13 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2373,13 +2379,13 @@
         <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2399,13 +2405,13 @@
         <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2425,13 +2431,13 @@
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2451,13 +2457,13 @@
         <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2477,10 +2483,10 @@
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2500,13 +2506,13 @@
         <v>31</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -2526,13 +2532,13 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -2552,13 +2558,13 @@
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -2578,13 +2584,13 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -2604,13 +2610,13 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -2630,13 +2636,13 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -2656,13 +2662,13 @@
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -2682,13 +2688,13 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -2708,13 +2714,13 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -2734,13 +2740,13 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -2760,13 +2766,13 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -2786,13 +2792,13 @@
         <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -2812,13 +2818,13 @@
         <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -2838,13 +2844,13 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -2864,13 +2870,13 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -2890,13 +2896,13 @@
         <v>32</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -2916,13 +2922,13 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -2942,13 +2948,13 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -2968,13 +2974,13 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -2994,13 +3000,13 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3020,13 +3026,13 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3046,13 +3052,13 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3072,13 +3078,13 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3098,13 +3104,13 @@
         <v>33</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3124,13 +3130,13 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3150,13 +3156,13 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3176,13 +3182,13 @@
         <v>14</v>
       </c>
       <c r="E103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3202,13 +3208,13 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3228,13 +3234,13 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3254,13 +3260,13 @@
         <v>34</v>
       </c>
       <c r="E106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3280,13 +3286,13 @@
         <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3306,13 +3312,13 @@
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3332,13 +3338,13 @@
         <v>35</v>
       </c>
       <c r="E109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3358,13 +3364,13 @@
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3384,13 +3390,13 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3410,13 +3416,13 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3436,13 +3442,13 @@
         <v>14</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3462,13 +3468,13 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3488,13 +3494,13 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3514,13 +3520,13 @@
         <v>14</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -3540,13 +3546,13 @@
         <v>36</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -3566,13 +3572,13 @@
         <v>21</v>
       </c>
       <c r="E118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -3592,13 +3598,13 @@
         <v>37</v>
       </c>
       <c r="E119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -3618,13 +3624,13 @@
         <v>21</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -3644,13 +3650,13 @@
         <v>35</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -3670,13 +3676,13 @@
         <v>21</v>
       </c>
       <c r="E122" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -3696,13 +3702,13 @@
         <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -3722,13 +3728,13 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -3748,13 +3754,13 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -3774,13 +3780,13 @@
         <v>21</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -3800,13 +3806,13 @@
         <v>38</v>
       </c>
       <c r="E127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -3826,13 +3832,13 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -3852,13 +3858,13 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -3878,13 +3884,13 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -3904,13 +3910,13 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -3930,13 +3936,13 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -3956,13 +3962,13 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -3982,13 +3988,13 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4008,13 +4014,13 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4034,13 +4040,13 @@
         <v>12</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4060,13 +4066,13 @@
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4086,13 +4092,13 @@
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4112,13 +4118,13 @@
         <v>12</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4138,13 +4144,13 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4164,13 +4170,13 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4190,13 +4196,13 @@
         <v>25</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4216,13 +4222,13 @@
         <v>39</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4242,13 +4248,13 @@
         <v>36</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4268,13 +4274,13 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4294,13 +4300,13 @@
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4320,13 +4326,13 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4346,15 +4352,639 @@
         <v>35</v>
       </c>
       <c r="E148" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148" t="s">
+        <v>45</v>
+      </c>
+      <c r="H148">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45600.34652777778</v>
+      </c>
+      <c r="D149" t="s">
         <v>40</v>
       </c>
-      <c r="F148" t="s">
-        <v>42</v>
-      </c>
-      <c r="G148" t="s">
-        <v>43</v>
-      </c>
-      <c r="H148">
+      <c r="E149" t="s">
+        <v>41</v>
+      </c>
+      <c r="F149" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149" t="s">
+        <v>45</v>
+      </c>
+      <c r="H149">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45607.38611111111</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" t="s">
+        <v>41</v>
+      </c>
+      <c r="F150" t="s">
+        <v>44</v>
+      </c>
+      <c r="G150" t="s">
+        <v>45</v>
+      </c>
+      <c r="H150">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45614.39375</v>
+      </c>
+      <c r="D151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" t="s">
+        <v>41</v>
+      </c>
+      <c r="F151" t="s">
+        <v>44</v>
+      </c>
+      <c r="G151" t="s">
+        <v>45</v>
+      </c>
+      <c r="H151">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45621.42430555556</v>
+      </c>
+      <c r="D152" t="s">
+        <v>40</v>
+      </c>
+      <c r="E152" t="s">
+        <v>41</v>
+      </c>
+      <c r="F152" t="s">
+        <v>44</v>
+      </c>
+      <c r="G152" t="s">
+        <v>45</v>
+      </c>
+      <c r="H152">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45628.43472222222</v>
+      </c>
+      <c r="D153" t="s">
+        <v>40</v>
+      </c>
+      <c r="E153" t="s">
+        <v>41</v>
+      </c>
+      <c r="F153" t="s">
+        <v>44</v>
+      </c>
+      <c r="G153" t="s">
+        <v>45</v>
+      </c>
+      <c r="H153">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45636.42013888889</v>
+      </c>
+      <c r="D154" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F154" t="s">
+        <v>44</v>
+      </c>
+      <c r="G154" t="s">
+        <v>45</v>
+      </c>
+      <c r="H154">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45642.42083333333</v>
+      </c>
+      <c r="D155" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" t="s">
+        <v>41</v>
+      </c>
+      <c r="F155" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155" t="s">
+        <v>45</v>
+      </c>
+      <c r="H155">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45649.29444444444</v>
+      </c>
+      <c r="D156" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156" t="s">
+        <v>41</v>
+      </c>
+      <c r="F156" t="s">
+        <v>44</v>
+      </c>
+      <c r="G156" t="s">
+        <v>45</v>
+      </c>
+      <c r="H156">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45656.33263888889</v>
+      </c>
+      <c r="D157" t="s">
+        <v>40</v>
+      </c>
+      <c r="E157" t="s">
+        <v>41</v>
+      </c>
+      <c r="F157" t="s">
+        <v>44</v>
+      </c>
+      <c r="G157" t="s">
+        <v>45</v>
+      </c>
+      <c r="H157">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45663.38819444444</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" t="s">
+        <v>41</v>
+      </c>
+      <c r="F158" t="s">
+        <v>44</v>
+      </c>
+      <c r="G158" t="s">
+        <v>45</v>
+      </c>
+      <c r="H158">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45670.47569444445</v>
+      </c>
+      <c r="D159" t="s">
+        <v>40</v>
+      </c>
+      <c r="E159" t="s">
+        <v>41</v>
+      </c>
+      <c r="F159" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159" t="s">
+        <v>45</v>
+      </c>
+      <c r="H159">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45677.42152777778</v>
+      </c>
+      <c r="D160" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160" t="s">
+        <v>41</v>
+      </c>
+      <c r="F160" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" t="s">
+        <v>45</v>
+      </c>
+      <c r="H160">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45685.42222222222</v>
+      </c>
+      <c r="D161" t="s">
+        <v>40</v>
+      </c>
+      <c r="E161" t="s">
+        <v>41</v>
+      </c>
+      <c r="F161" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" t="s">
+        <v>45</v>
+      </c>
+      <c r="H161">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45699.40763888889</v>
+      </c>
+      <c r="D162" t="s">
+        <v>40</v>
+      </c>
+      <c r="E162" t="s">
+        <v>41</v>
+      </c>
+      <c r="F162" t="s">
+        <v>44</v>
+      </c>
+      <c r="G162" t="s">
+        <v>45</v>
+      </c>
+      <c r="H162">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45705.41666666666</v>
+      </c>
+      <c r="D163" t="s">
+        <v>40</v>
+      </c>
+      <c r="E163" t="s">
+        <v>41</v>
+      </c>
+      <c r="F163" t="s">
+        <v>44</v>
+      </c>
+      <c r="G163" t="s">
+        <v>45</v>
+      </c>
+      <c r="H163">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" t="s">
+        <v>9</v>
+      </c>
+      <c r="B164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45712.44652777778</v>
+      </c>
+      <c r="D164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" t="s">
+        <v>41</v>
+      </c>
+      <c r="F164" t="s">
+        <v>44</v>
+      </c>
+      <c r="G164" t="s">
+        <v>45</v>
+      </c>
+      <c r="H164">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45719.43541666667</v>
+      </c>
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" t="s">
+        <v>41</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165" t="s">
+        <v>45</v>
+      </c>
+      <c r="H165">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B166" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45726.43125</v>
+      </c>
+      <c r="D166" t="s">
+        <v>40</v>
+      </c>
+      <c r="E166" t="s">
+        <v>41</v>
+      </c>
+      <c r="F166" t="s">
+        <v>44</v>
+      </c>
+      <c r="G166" t="s">
+        <v>45</v>
+      </c>
+      <c r="H166">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" t="s">
+        <v>9</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45733.43055555555</v>
+      </c>
+      <c r="D167" t="s">
+        <v>40</v>
+      </c>
+      <c r="E167" t="s">
+        <v>41</v>
+      </c>
+      <c r="F167" t="s">
+        <v>44</v>
+      </c>
+      <c r="G167" t="s">
+        <v>45</v>
+      </c>
+      <c r="H167">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>9</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45741.42152777778</v>
+      </c>
+      <c r="D168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168" t="s">
+        <v>41</v>
+      </c>
+      <c r="F168" t="s">
+        <v>44</v>
+      </c>
+      <c r="G168" t="s">
+        <v>45</v>
+      </c>
+      <c r="H168">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45747.44305555556</v>
+      </c>
+      <c r="D169" t="s">
+        <v>40</v>
+      </c>
+      <c r="E169" t="s">
+        <v>41</v>
+      </c>
+      <c r="F169" t="s">
+        <v>44</v>
+      </c>
+      <c r="G169" t="s">
+        <v>45</v>
+      </c>
+      <c r="H169">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45754.47222222222</v>
+      </c>
+      <c r="D170" t="s">
+        <v>40</v>
+      </c>
+      <c r="E170" t="s">
+        <v>41</v>
+      </c>
+      <c r="F170" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45769.46388888889</v>
+      </c>
+      <c r="D171" t="s">
+        <v>40</v>
+      </c>
+      <c r="E171" t="s">
+        <v>41</v>
+      </c>
+      <c r="F171" t="s">
+        <v>44</v>
+      </c>
+      <c r="G171" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45775.47916666666</v>
+      </c>
+      <c r="D172" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" t="s">
+        <v>44</v>
+      </c>
+      <c r="G172" t="s">
+        <v>45</v>
+      </c>
+      <c r="H172">
         <v>600</v>
       </c>
     </row>
